--- a/Resource/excel/1000-框架-掉落配置.xlsx
+++ b/Resource/excel/1000-框架-掉落配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="dropgroup" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1">
+    <comment ref="D4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="1">
+    <comment ref="E4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
+    <comment ref="G4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1">
+    <comment ref="H4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
+    <comment ref="I4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>#dropgroup</t>
   </si>
@@ -226,6 +226,9 @@
     <t>掉落id</t>
   </si>
   <si>
+    <t>随机类型</t>
+  </si>
+  <si>
     <t>数据组id</t>
   </si>
   <si>
@@ -248,6 +251,9 @@
   </si>
   <si>
     <t>Id(int)</t>
+  </si>
+  <si>
+    <t>RandType(int)</t>
   </si>
   <si>
     <t>DropDataId(int)</t>
@@ -320,6 +326,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -328,7 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,28 +394,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,8 +432,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,95 +442,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -476,11 +487,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -491,13 +497,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,13 +623,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,151 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,54 +688,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -752,17 +710,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -782,153 +729,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1368,34 +1374,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
-    <col min="11" max="12" width="17.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="4" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="4"/>
+    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" customWidth="1"/>
+    <col min="12" max="13" width="17.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="4" customWidth="1"/>
+    <col min="18" max="18" width="19.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -1403,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1428,9 +1435,12 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1455,36 +1465,42 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:8">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1492,100 +1508,115 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>100</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
       <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>100</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
       <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
       <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="1"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="1"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="1"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="1"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="1"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1"/>
